--- a/statistics/HistoricalDistanceData/historical_distance/Q55032258-en.xlsx
+++ b/statistics/HistoricalDistanceData/historical_distance/Q55032258-en.xlsx
@@ -31,37 +31,37 @@
     <t>uri</t>
   </si>
   <si>
+    <t>Noblesville school shooting: New details about the day of the shooting</t>
+  </si>
+  <si>
     <t>Indiana law to be reviewed after Noblesville shooting suspect tried as a child</t>
   </si>
   <si>
-    <t>Noblesville school shooting: New details about the day of the shooting</t>
-  </si>
-  <si>
     <t>Indiana middle schooler returns to class with 2 guns, shoots peer, teacher: 'I was thinking, it's not real'</t>
   </si>
   <si>
+    <t>2018-05-25T00:00:00UTC</t>
+  </si>
+  <si>
     <t>2018-06-06T00:00:00UTC</t>
   </si>
   <si>
-    <t>2018-05-25T00:00:00UTC</t>
-  </si>
-  <si>
     <t>2018-05-26T04:55:00UTC</t>
   </si>
   <si>
+    <t>day_0</t>
+  </si>
+  <si>
     <t>day_2_to_30</t>
   </si>
   <si>
-    <t>day_0</t>
-  </si>
-  <si>
     <t>day_1</t>
   </si>
   <si>
+    <t>https://www.indystar.com/story/news/2018/11/05/noblesville-indiana-middle-school-shooting-suspect-new-details/1891261002/</t>
+  </si>
+  <si>
     <t>https://www.theindychannel.com/news/politics/indiana-law-to-be-reviewed-after-noblesville-shooting-suspect-tried-as-a-child</t>
-  </si>
-  <si>
-    <t>https://www.indystar.com/story/news/2018/11/05/noblesville-indiana-middle-school-shooting-suspect-new-details/1891261002/</t>
   </si>
   <si>
     <t>https://abcnews.go.com/US/active-shooter-reported-indiana-middle-school-police/story?id=55413808</t>
@@ -466,7 +466,7 @@
         <v>8</v>
       </c>
       <c r="C2">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="D2" t="s">
         <v>11</v>
@@ -483,7 +483,7 @@
         <v>9</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="D3" t="s">
         <v>12</v>
